--- a/Final_Project_GM/Chicken/산란계_홍명주_20240910.xlsx
+++ b/Final_Project_GM/Chicken/산란계_홍명주_20240910.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="75">
   <si>
     <t>가축 종류</t>
   </si>
@@ -129,9 +129,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.131 kg</t>
-  </si>
-  <si>
     <t>작성 금지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -163,9 +160,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.127 kg</t>
-  </si>
-  <si>
     <t>산란계</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -177,19 +171,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.111 kg</t>
-  </si>
-  <si>
     <t>E004</t>
   </si>
   <si>
-    <t>0.110 kg</t>
-  </si>
-  <si>
     <t>E005</t>
-  </si>
-  <si>
-    <t>0.121 kg</t>
   </si>
   <si>
     <t>N</t>
@@ -199,72 +184,39 @@
     <t>E006</t>
   </si>
   <si>
-    <t>0.122 kg</t>
-  </si>
-  <si>
     <t>E007</t>
   </si>
   <si>
-    <t>0.119 kg</t>
-  </si>
-  <si>
     <t>E008</t>
   </si>
   <si>
-    <t>0.112 kg</t>
-  </si>
-  <si>
     <t>E009</t>
   </si>
   <si>
     <t>E010</t>
   </si>
   <si>
-    <t>0.118 kg</t>
-  </si>
-  <si>
     <t>E011</t>
   </si>
   <si>
-    <t>0.129 kg</t>
-  </si>
-  <si>
     <t>E012</t>
   </si>
   <si>
-    <t>0.128 kg</t>
-  </si>
-  <si>
     <t>E013</t>
   </si>
   <si>
-    <t>0.120 kg</t>
-  </si>
-  <si>
     <t>E014</t>
   </si>
   <si>
-    <t>0.133 kg</t>
-  </si>
-  <si>
     <t>E015</t>
   </si>
   <si>
-    <t>0.134 kg</t>
-  </si>
-  <si>
     <t>E016</t>
   </si>
   <si>
-    <t>0.130 kg</t>
-  </si>
-  <si>
     <t>E017</t>
   </si>
   <si>
-    <t>0.123 kg</t>
-  </si>
-  <si>
     <t>E018</t>
   </si>
   <si>
@@ -280,9 +232,6 @@
     <t>E022</t>
   </si>
   <si>
-    <t>0.113 kg</t>
-  </si>
-  <si>
     <t>E023</t>
   </si>
   <si>
@@ -293,9 +242,6 @@
   </si>
   <si>
     <t>E026</t>
-  </si>
-  <si>
-    <t>0.135 kg</t>
   </si>
   <si>
     <t>E027</t>
@@ -708,7 +654,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -801,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>25</v>
@@ -833,19 +779,19 @@
         <v>28</v>
       </c>
       <c r="I2" s="10" t="str">
-        <f ca="1">RANDBETWEEN(43,52) &amp; "cm"</f>
-        <v>51cm</v>
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>48</v>
       </c>
       <c r="J2" s="6" t="str">
-        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;"kg"</f>
-        <v>2.3kg</v>
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.3</v>
       </c>
       <c r="K2" s="8">
         <f ca="1">RANDBETWEEN(DATE(2023,11,6), DATE(2024,1,20))</f>
-        <v>45295</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>35</v>
+        <v>45298</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.13100000000000001</v>
       </c>
       <c r="M2" s="6" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2), "많음", "적음")</f>
@@ -853,7 +799,7 @@
       </c>
       <c r="N2" s="6" t="str">
         <f ca="1">TEXT(40 +(41.8-40)*RAND(), "00.0")</f>
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>27</v>
@@ -863,7 +809,7 @@
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S2" s="8" t="str">
         <f ca="1">"AI ("&amp;TEXT(K2+42,"yy-mm-dd")&amp;"); "&amp;
@@ -871,7 +817,7 @@
 "GD ("&amp;TEXT(K2,"yy-mm-dd")&amp;");  "&amp;
 "EC ("&amp;TEXT(K2+56,"yy-mm-dd")&amp;"); "&amp;
 "ND ("&amp;TEXT(K2,"yy-mm-dd")&amp;");"</f>
-        <v>AI (24-02-15); MD (24-01-04); GD (24-01-04);  EC (24-02-29); ND (24-01-04);</v>
+        <v>AI (24-02-18); MD (24-01-07); GD (24-01-07);  EC (24-03-03); ND (24-01-07);</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>26</v>
@@ -881,14 +827,14 @@
     "ND(" &amp; TEXT(RANDBETWEEN(DATE(2024,1,1), DATE(2024,9,1)), "yy-mm-dd") &amp; "/치료)",
     "IBD(" &amp; TEXT(RANDBETWEEN(DATE(2024,1,1), DATE(2024,9,1)), "yy-mm-dd") &amp; "/치료)"
 )</f>
-        <v>IBD(24-06-13/치료)</v>
+        <v>ND(24-04-30/치료)</v>
       </c>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="6">
         <v>1</v>
@@ -896,82 +842,82 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D3" s="6">
         <v>526481</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="G3" s="8">
         <v>45342</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="9" t="str">
-        <f t="shared" ref="I3:I31" ca="1" si="0">RANDBETWEEN(43,52) &amp; "cm"</f>
-        <v>51cm</v>
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>47</v>
       </c>
       <c r="J3" s="6" t="str">
-        <f t="shared" ref="J3:J31" ca="1" si="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;"kg"</f>
-        <v>2.1kg</v>
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.1</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" ref="K3:K31" ca="1" si="2">RANDBETWEEN(DATE(2023,11,6), DATE(2024,1,20))</f>
-        <v>45275</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>44</v>
+        <f t="shared" ref="K3:K31" ca="1" si="0">RANDBETWEEN(DATE(2023,11,6), DATE(2024,1,20))</f>
+        <v>45244</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.127</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f t="shared" ref="M3:M31" ca="1" si="3">CHOOSE(RANDBETWEEN(1,2), "많음", "적음")</f>
+        <f t="shared" ref="M3:M31" ca="1" si="1">CHOOSE(RANDBETWEEN(1,2), "많음", "적음")</f>
         <v>적음</v>
       </c>
       <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N31" ca="1" si="4">TEXT(40 +(41.8-40)*RAND(), "00.0")</f>
-        <v>40.5</v>
+        <f t="shared" ref="N3:N31" ca="1" si="2">TEXT(40 +(41.8-40)*RAND(), "00.0")</f>
+        <v>41.5</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="8" t="str">
-        <f t="shared" ref="S3:S31" ca="1" si="5">"AI ("&amp;TEXT(K3+42,"yy-mm-dd")&amp;"); "&amp;
+        <f t="shared" ref="S3:S31" ca="1" si="3">"AI ("&amp;TEXT(K3+42,"yy-mm-dd")&amp;"); "&amp;
 "MD ("&amp;TEXT(K3,"yy-mm-dd")&amp;"); "&amp;
 "GD ("&amp;TEXT(K3,"yy-mm-dd")&amp;");  "&amp;
 "EC ("&amp;TEXT(K3+56,"yy-mm-dd")&amp;"); "&amp;
 "ND ("&amp;TEXT(K3,"yy-mm-dd")&amp;");"</f>
-        <v>AI (24-01-26); MD (23-12-15); GD (23-12-15);  EC (24-02-09); ND (23-12-15);</v>
+        <v>AI (23-12-26); MD (23-11-14); GD (23-11-14);  EC (24-01-09); ND (23-11-14);</v>
       </c>
       <c r="T3" s="6"/>
       <c r="U3" s="11" t="str">
-        <f t="shared" ref="U3:U31" ca="1" si="6">CHOOSE(RANDBETWEEN(1,2),
+        <f t="shared" ref="U3:U31" ca="1" si="4">CHOOSE(RANDBETWEEN(1,2),
     "ND(" &amp; TEXT(RANDBETWEEN(DATE(2024,1,1), DATE(2024,9,1)), "yy-mm-dd") &amp; "/치료)",
     "IBD(" &amp; TEXT(RANDBETWEEN(DATE(2024,1,1), DATE(2024,9,1)), "yy-mm-dd") &amp; "/치료)"
 )</f>
-        <v>ND(24-03-28/치료)</v>
+        <v>IBD(24-08-18/치료)</v>
       </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="6">
         <v>1</v>
@@ -979,51 +925,51 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="6">
         <v>526481</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="8">
         <v>45342</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>44</v>
+      </c>
+      <c r="J4" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.3</v>
+      </c>
+      <c r="K4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>47cm</v>
-      </c>
-      <c r="J4" s="6" t="str">
+        <v>45295</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.111</v>
+      </c>
+      <c r="M4" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2kg</v>
-      </c>
-      <c r="K4" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N4" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45242</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N4" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.7</v>
+        <v>40.2</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>27</v>
@@ -1034,13 +980,13 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (23-12-24); MD (23-11-12); GD (23-11-12);  EC (24-01-07); ND (23-11-12);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-15); MD (24-01-04); GD (24-01-04);  EC (24-02-29); ND (24-01-04);</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>IBD(24-02-14/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-05-08/치료)</v>
       </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
@@ -1067,7 +1013,7 @@
         <v>526481</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>34</v>
@@ -1079,27 +1025,27 @@
         <v>28</v>
       </c>
       <c r="I5" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>47</v>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>49cm</v>
-      </c>
-      <c r="J5" s="6" t="str">
+        <v>45270</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="M5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7kg</v>
-      </c>
-      <c r="K5" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45247</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N5" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>27</v>
@@ -1110,13 +1056,13 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (23-12-29); MD (23-11-17); GD (23-11-17);  EC (24-01-12); ND (23-11-17);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-01-21); MD (23-12-10); GD (23-12-10);  EC (24-02-04); ND (23-12-10);</v>
       </c>
       <c r="T5" s="6"/>
       <c r="U5" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-01-07/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-01-13/치료)</v>
       </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -1134,7 +1080,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
@@ -1143,10 +1089,10 @@
         <v>526481</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="8">
         <v>45342</v>
@@ -1155,44 +1101,44 @@
         <v>28</v>
       </c>
       <c r="I6" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>43</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45cm</v>
-      </c>
-      <c r="J6" s="6" t="str">
+        <v>45292</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.121</v>
+      </c>
+      <c r="M6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3kg</v>
-      </c>
-      <c r="K6" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45242</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N6" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.6</v>
+        <v>40.3</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (23-12-24); MD (23-11-12); GD (23-11-12);  EC (24-01-07); ND (23-11-12);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-12); MD (24-01-01); GD (24-01-01);  EC (24-02-26); ND (24-01-01);</v>
       </c>
       <c r="T6" s="6"/>
       <c r="U6" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>IBD(24-01-22/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-06-14/치료)</v>
       </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -1219,7 +1165,7 @@
         <v>526481</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>34</v>
@@ -1231,30 +1177,30 @@
         <v>28</v>
       </c>
       <c r="I7" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>43</v>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>1.8</v>
+      </c>
+      <c r="K7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44cm</v>
-      </c>
-      <c r="J7" s="6" t="str">
+        <v>45279</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.122</v>
+      </c>
+      <c r="M7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8kg</v>
-      </c>
-      <c r="K7" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45255</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N7" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>27</v>
@@ -1262,13 +1208,13 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-01-06); MD (23-11-25); GD (23-11-25);  EC (24-01-20); ND (23-11-25);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-01-30); MD (23-12-19); GD (23-12-19);  EC (24-02-13); ND (23-12-19);</v>
       </c>
       <c r="T7" s="6"/>
       <c r="U7" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-07-25/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-05-12/치료)</v>
       </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -1295,56 +1241,56 @@
         <v>526481</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="8">
         <v>45342</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>46</v>
+      </c>
+      <c r="J8" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.0</v>
+      </c>
+      <c r="K8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43cm</v>
-      </c>
-      <c r="J8" s="6" t="str">
+        <v>45287</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2kg</v>
-      </c>
-      <c r="K8" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45247</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.7</v>
+        <v>41.5</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (23-12-29); MD (23-11-17); GD (23-11-17);  EC (24-01-12); ND (23-11-17);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-07); MD (23-12-27); GD (23-12-27);  EC (24-02-21); ND (23-12-27);</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-02-17/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-05-06/치료)</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1371,7 +1317,7 @@
         <v>526481</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>34</v>
@@ -1380,30 +1326,30 @@
         <v>45342</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>49</v>
+      </c>
+      <c r="J9" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.0</v>
+      </c>
+      <c r="K9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>47cm</v>
-      </c>
-      <c r="J9" s="6" t="str">
+        <v>45282</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="M9" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2kg</v>
-      </c>
-      <c r="K9" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45304</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N9" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.2</v>
+        <v>41.6</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>27</v>
@@ -1414,13 +1360,13 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-24); MD (24-01-13); GD (24-01-13);  EC (24-03-09); ND (24-01-13);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-02); MD (23-12-22); GD (23-12-22);  EC (24-02-16); ND (23-12-22);</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-04-06/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-07-08/치료)</v>
       </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -1447,7 +1393,7 @@
         <v>526481</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>34</v>
@@ -1456,54 +1402,54 @@
         <v>45342</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>48</v>
+      </c>
+      <c r="J10" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>1.8</v>
+      </c>
+      <c r="K10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>47cm</v>
-      </c>
-      <c r="J10" s="6" t="str">
+        <v>45282</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M10" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3kg</v>
-      </c>
-      <c r="K10" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N10" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45251</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N10" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.4</v>
+        <v>40.7</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-01-02); MD (23-11-21); GD (23-11-21);  EC (24-01-16); ND (23-11-21);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-02); MD (23-12-22); GD (23-12-22);  EC (24-02-16); ND (23-12-22);</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>IBD(24-08-25/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-07-22/치료)</v>
       </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA10" s="6">
         <v>1</v>
@@ -1511,19 +1457,19 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6">
         <v>526481</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>34</v>
@@ -1535,44 +1481,44 @@
         <v>28</v>
       </c>
       <c r="I11" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>44</v>
+      </c>
+      <c r="J11" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45cm</v>
-      </c>
-      <c r="J11" s="6" t="str">
+        <v>45259</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M11" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2kg</v>
-      </c>
-      <c r="K11" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N11" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45302</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N11" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-22); MD (24-01-11); GD (24-01-11);  EC (24-03-07); ND (24-01-11);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-01-10); MD (23-11-29); GD (23-11-29);  EC (24-01-24); ND (23-11-29);</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-07-01/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-08-28/치료)</v>
       </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -1587,19 +1533,19 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6">
         <v>526481</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>34</v>
@@ -1608,54 +1554,54 @@
         <v>45342</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
         <v>43</v>
       </c>
-      <c r="I12" s="9" t="str">
+      <c r="J12" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.0</v>
+      </c>
+      <c r="K12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45cm</v>
-      </c>
-      <c r="J12" s="6" t="str">
+        <v>45285</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.129</v>
+      </c>
+      <c r="M12" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7kg</v>
-      </c>
-      <c r="K12" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N12" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45256</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N12" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.5</v>
+        <v>40.0</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-01-07); MD (23-11-26); GD (23-11-26);  EC (24-01-21); ND (23-11-26);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-05); MD (23-12-25); GD (23-12-25);  EC (24-02-19); ND (23-12-25);</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-04-27/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-01-15/치료)</v>
       </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA12" s="6">
         <v>1</v>
@@ -1669,13 +1615,13 @@
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6">
         <v>526481</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>34</v>
@@ -1684,33 +1630,33 @@
         <v>45342</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>50</v>
+      </c>
+      <c r="J13" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.3</v>
+      </c>
+      <c r="K13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>46cm</v>
-      </c>
-      <c r="J13" s="6" t="str">
+        <v>45238</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.128</v>
+      </c>
+      <c r="M13" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8kg</v>
-      </c>
-      <c r="K13" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N13" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45288</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.8</v>
+        <v>40.2</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>27</v>
@@ -1718,13 +1664,13 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-08); MD (23-12-28); GD (23-12-28);  EC (24-02-22); ND (23-12-28);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (23-12-20); MD (23-11-08); GD (23-11-08);  EC (24-01-03); ND (23-11-08);</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>IBD(24-04-25/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-01-07/치료)</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -1739,19 +1685,19 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="6">
         <v>526481</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>34</v>
@@ -1760,33 +1706,33 @@
         <v>45342</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>50</v>
+      </c>
+      <c r="J14" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.1</v>
+      </c>
+      <c r="K14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>48cm</v>
-      </c>
-      <c r="J14" s="6" t="str">
+        <v>45264</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="M14" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4kg</v>
-      </c>
-      <c r="K14" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N14" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45241</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N14" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
         <v>40.1</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>27</v>
@@ -1794,20 +1740,20 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (23-12-23); MD (23-11-11); GD (23-11-11);  EC (24-01-06); ND (23-11-11);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-01-15); MD (23-12-04); GD (23-12-04);  EC (24-01-29); ND (23-12-04);</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-05-24/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-08-15/치료)</v>
       </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA14" s="6">
         <v>1</v>
@@ -1815,75 +1761,75 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6">
         <v>526481</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="8">
         <v>45342</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>45</v>
+      </c>
+      <c r="J15" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43cm</v>
-      </c>
-      <c r="J15" s="6" t="str">
+        <v>45283</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="M15" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4kg</v>
-      </c>
-      <c r="K15" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N15" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45302</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N15" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-22); MD (24-01-11); GD (24-01-11);  EC (24-03-07); ND (24-01-11);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-03); MD (23-12-23); GD (23-12-23);  EC (24-02-17); ND (23-12-23);</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-04-24/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-05-18/치료)</v>
       </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA15" s="6">
         <v>1</v>
@@ -1891,54 +1837,54 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D16" s="6">
         <v>526481</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="8">
         <v>45342</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>45</v>
+      </c>
+      <c r="J16" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>1.7</v>
+      </c>
+      <c r="K16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44cm</v>
-      </c>
-      <c r="J16" s="6" t="str">
+        <v>45282</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="M16" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8kg</v>
-      </c>
-      <c r="K16" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N16" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45264</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N16" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.5</v>
+        <v>41.2</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>27</v>
@@ -1946,20 +1892,20 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-01-15); MD (23-12-04); GD (23-12-04);  EC (24-01-29); ND (23-12-04);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-02); MD (23-12-22); GD (23-12-22);  EC (24-02-16); ND (23-12-22);</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-04-12/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-04-15/치료)</v>
       </c>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA16" s="6">
         <v>1</v>
@@ -1967,10 +1913,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>32</v>
@@ -1979,7 +1925,7 @@
         <v>526481</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>34</v>
@@ -1988,54 +1934,54 @@
         <v>45342</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>52</v>
+      </c>
+      <c r="J17" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>51cm</v>
-      </c>
-      <c r="J17" s="6" t="str">
+        <v>45300</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="M17" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2kg</v>
-      </c>
-      <c r="K17" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N17" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45289</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N17" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.5</v>
+        <v>40.5</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-09); MD (23-12-29); GD (23-12-29);  EC (24-02-23); ND (23-12-29);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-20); MD (24-01-09); GD (24-01-09);  EC (24-03-05); ND (24-01-09);</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>IBD(24-07-22/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-07-03/치료)</v>
       </c>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA17" s="6">
         <v>1</v>
@@ -2043,22 +1989,22 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D18" s="6">
         <v>526481</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="8">
         <v>45342</v>
@@ -2067,51 +2013,51 @@
         <v>28</v>
       </c>
       <c r="I18" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>45</v>
+      </c>
+      <c r="J18" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44cm</v>
-      </c>
-      <c r="J18" s="6" t="str">
+        <v>45267</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.123</v>
+      </c>
+      <c r="M18" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8kg</v>
-      </c>
-      <c r="K18" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N18" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45294</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N18" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-14); MD (24-01-03); GD (24-01-03);  EC (24-02-28); ND (24-01-03);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-01-18); MD (23-12-07); GD (23-12-07);  EC (24-02-01); ND (23-12-07);</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-01-12/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-07-27/치료)</v>
       </c>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA18" s="6">
         <v>0</v>
@@ -2119,19 +2065,19 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="6">
         <v>526481</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>34</v>
@@ -2143,51 +2089,51 @@
         <v>28</v>
       </c>
       <c r="I19" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>50</v>
+      </c>
+      <c r="J19" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.0</v>
+      </c>
+      <c r="K19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43cm</v>
-      </c>
-      <c r="J19" s="6" t="str">
+        <v>45279</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.129</v>
+      </c>
+      <c r="M19" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9kg</v>
-      </c>
-      <c r="K19" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N19" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45296</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N19" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.5</v>
+        <v>41.1</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-16); MD (24-01-05); GD (24-01-05);  EC (24-03-01); ND (24-01-05);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-01-30); MD (23-12-19); GD (23-12-19);  EC (24-02-13); ND (23-12-19);</v>
       </c>
       <c r="T19" s="6"/>
       <c r="U19" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-04-07/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-03-14/치료)</v>
       </c>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA19" s="6">
         <v>1</v>
@@ -2195,75 +2141,75 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="6">
         <v>526481</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="8">
         <v>45342</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>49</v>
+      </c>
+      <c r="J20" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52cm</v>
-      </c>
-      <c r="J20" s="6" t="str">
+        <v>45307</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M20" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0kg</v>
-      </c>
-      <c r="K20" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N20" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45280</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N20" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
         <v>40.7</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-01-31); MD (23-12-20); GD (23-12-20);  EC (24-02-14); ND (23-12-20);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-27); MD (24-01-16); GD (24-01-16);  EC (24-03-12); ND (24-01-16);</v>
       </c>
       <c r="T20" s="6"/>
       <c r="U20" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-07-28/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-05-18/치료)</v>
       </c>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA20" s="6">
         <v>1</v>
@@ -2271,51 +2217,51 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D21" s="6">
         <v>526481</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="8">
         <v>45342</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>47</v>
+      </c>
+      <c r="J21" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>1.9</v>
+      </c>
+      <c r="K21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>48cm</v>
-      </c>
-      <c r="J21" s="6" t="str">
+        <v>45311</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.127</v>
+      </c>
+      <c r="M21" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2kg</v>
-      </c>
-      <c r="K21" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N21" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45300</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N21" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>27</v>
@@ -2326,13 +2272,13 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-20); MD (24-01-09); GD (24-01-09);  EC (24-03-05); ND (24-01-09);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-03-02); MD (24-01-20); GD (24-01-20);  EC (24-03-16); ND (24-01-20);</v>
       </c>
       <c r="T21" s="6"/>
       <c r="U21" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-07-11/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-01-23/치료)</v>
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -2347,75 +2293,75 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D22" s="6">
         <v>526481</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="8">
         <v>45342</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>44</v>
+      </c>
+      <c r="J22" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.0</v>
+      </c>
+      <c r="K22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52cm</v>
-      </c>
-      <c r="J22" s="6" t="str">
+        <v>45290</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.123</v>
+      </c>
+      <c r="M22" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0kg</v>
-      </c>
-      <c r="K22" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N22" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45311</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N22" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.1</v>
+        <v>41.7</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-03-02); MD (24-01-20); GD (24-01-20);  EC (24-03-16); ND (24-01-20);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-10); MD (23-12-30); GD (23-12-30);  EC (24-02-24); ND (23-12-30);</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-01-26/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>ND(24-01-29/치료)</v>
       </c>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA22" s="6">
         <v>1</v>
@@ -2423,75 +2369,75 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D23" s="6">
         <v>526481</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="8">
         <v>45342</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>44</v>
+      </c>
+      <c r="J23" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.0</v>
+      </c>
+      <c r="K23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52cm</v>
-      </c>
-      <c r="J23" s="6" t="str">
+        <v>45285</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.113</v>
+      </c>
+      <c r="M23" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2kg</v>
-      </c>
-      <c r="K23" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N23" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45271</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N23" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-01-22); MD (23-12-11); GD (23-12-11);  EC (24-02-05); ND (23-12-11);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-05); MD (23-12-25); GD (23-12-25);  EC (24-02-19); ND (23-12-25);</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>IBD(24-06-01/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-08-05/치료)</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA23" s="6">
         <v>1</v>
@@ -2499,19 +2445,19 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D24" s="6">
         <v>526481</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>34</v>
@@ -2520,30 +2466,30 @@
         <v>45342</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>50</v>
+      </c>
+      <c r="J24" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>51cm</v>
-      </c>
-      <c r="J24" s="6" t="str">
+        <v>45279</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.121</v>
+      </c>
+      <c r="M24" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2kg</v>
-      </c>
-      <c r="K24" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N24" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45236</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N24" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.7</v>
+        <v>41.0</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>27</v>
@@ -2554,13 +2500,13 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (23-12-18); MD (23-11-06); GD (23-11-06);  EC (24-01-01); ND (23-11-06);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-01-30); MD (23-12-19); GD (23-12-19);  EC (24-02-13); ND (23-12-19);</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-07-25/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-07-30/치료)</v>
       </c>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -2587,7 +2533,7 @@
         <v>526481</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>34</v>
@@ -2599,27 +2545,27 @@
         <v>28</v>
       </c>
       <c r="I25" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>47</v>
+      </c>
+      <c r="J25" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.4</v>
+      </c>
+      <c r="K25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50cm</v>
-      </c>
-      <c r="J25" s="6" t="str">
+        <v>45253</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="M25" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0kg</v>
-      </c>
-      <c r="K25" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N25" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45288</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N25" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>27</v>
@@ -2630,13 +2576,13 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-08); MD (23-12-28); GD (23-12-28);  EC (24-02-22); ND (23-12-28);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-01-04); MD (23-11-23); GD (23-11-23);  EC (24-01-18); ND (23-11-23);</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-05-06/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-02-02/치료)</v>
       </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -2663,7 +2609,7 @@
         <v>526481</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>34</v>
@@ -2672,30 +2618,30 @@
         <v>45342</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
         <v>43</v>
       </c>
-      <c r="I26" s="9" t="str">
+      <c r="J26" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.4</v>
+      </c>
+      <c r="K26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52cm</v>
-      </c>
-      <c r="J26" s="6" t="str">
+        <v>45285</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.121</v>
+      </c>
+      <c r="M26" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2kg</v>
-      </c>
-      <c r="K26" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N26" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45250</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N26" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>29</v>
@@ -2706,13 +2652,13 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-01-01); MD (23-11-20); GD (23-11-20);  EC (24-01-15); ND (23-11-20);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-05); MD (23-12-25); GD (23-12-25);  EC (24-02-19); ND (23-12-25);</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>IBD(24-08-26/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-05-26/치료)</v>
       </c>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -2739,7 +2685,7 @@
         <v>526481</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>34</v>
@@ -2751,51 +2697,51 @@
         <v>28</v>
       </c>
       <c r="I27" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>46</v>
+      </c>
+      <c r="J27" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>1.7</v>
+      </c>
+      <c r="K27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43cm</v>
-      </c>
-      <c r="J27" s="6" t="str">
+        <v>45305</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M27" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9kg</v>
-      </c>
-      <c r="K27" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N27" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45243</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M27" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N27" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (23-12-25); MD (23-11-13); GD (23-11-13);  EC (24-01-08); ND (23-11-13);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-25); MD (24-01-14); GD (24-01-14);  EC (24-03-10); ND (24-01-14);</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>IBD(24-05-31/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-06-13/치료)</v>
       </c>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA27" s="6">
         <v>1</v>
@@ -2806,16 +2752,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D28" s="6">
         <v>526481</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>34</v>
@@ -2824,30 +2770,30 @@
         <v>45342</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>49</v>
+      </c>
+      <c r="J28" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>49cm</v>
-      </c>
-      <c r="J28" s="6" t="str">
+        <v>45301</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.113</v>
+      </c>
+      <c r="M28" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4kg</v>
-      </c>
-      <c r="K28" s="8">
+        <v>적음</v>
+      </c>
+      <c r="N28" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45270</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M28" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N28" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.7</v>
+        <v>40.8</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>27</v>
@@ -2858,13 +2804,13 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-01-21); MD (23-12-10); GD (23-12-10);  EC (24-02-04); ND (23-12-10);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-21); MD (24-01-10); GD (24-01-10);  EC (24-03-06); ND (24-01-10);</v>
       </c>
       <c r="T28" s="6"/>
       <c r="U28" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-04-07/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-04-26/치료)</v>
       </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -2891,7 +2837,7 @@
         <v>526481</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>34</v>
@@ -2903,44 +2849,44 @@
         <v>28</v>
       </c>
       <c r="I29" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>46</v>
+      </c>
+      <c r="J29" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43cm</v>
-      </c>
-      <c r="J29" s="6" t="str">
+        <v>45306</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.113</v>
+      </c>
+      <c r="M29" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8kg</v>
-      </c>
-      <c r="K29" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N29" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45281</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>많음</v>
-      </c>
-      <c r="N29" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.6</v>
+        <v>40.7</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-01); MD (23-12-21); GD (23-12-21);  EC (24-02-15); ND (23-12-21);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-02-26); MD (24-01-15); GD (24-01-15);  EC (24-03-11); ND (24-01-15);</v>
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>IBD(24-06-01/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-04-13/치료)</v>
       </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -2955,19 +2901,19 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="6">
         <v>526481</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>34</v>
@@ -2979,51 +2925,51 @@
         <v>28</v>
       </c>
       <c r="I30" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>46</v>
+      </c>
+      <c r="J30" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.1</v>
+      </c>
+      <c r="K30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44cm</v>
-      </c>
-      <c r="J30" s="6" t="str">
+        <v>45239</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.129</v>
+      </c>
+      <c r="M30" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3kg</v>
-      </c>
-      <c r="K30" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N30" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45307</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M30" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N30" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.1</v>
+        <v>40.8</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>27</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (24-02-27); MD (24-01-16); GD (24-01-16);  EC (24-03-12); ND (24-01-16);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (23-12-21); MD (23-11-09); GD (23-11-09);  EC (24-01-04); ND (23-11-09);</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-05-14/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-08-13/치료)</v>
       </c>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA30" s="6">
         <v>1</v>
@@ -3034,19 +2980,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D31" s="6">
         <v>526481</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="8">
         <v>45342</v>
@@ -3055,27 +3001,27 @@
         <v>28</v>
       </c>
       <c r="I31" s="9" t="str">
+        <f ca="1">RANDBETWEEN(43,52) &amp; ""</f>
+        <v>48</v>
+      </c>
+      <c r="J31" s="6" t="str">
+        <f ca="1">TEXT(1.7 +(2.4-1.7)*RAND(), "0.0") &amp;""</f>
+        <v>2.2</v>
+      </c>
+      <c r="K31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43cm</v>
-      </c>
-      <c r="J31" s="6" t="str">
+        <v>45273</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="M31" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4kg</v>
-      </c>
-      <c r="K31" s="8">
+        <v>많음</v>
+      </c>
+      <c r="N31" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>45242</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>적음</v>
-      </c>
-      <c r="N31" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="O31" s="6" t="s">
         <v>27</v>
@@ -3086,20 +3032,20 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AI (23-12-24); MD (23-11-12); GD (23-11-12);  EC (24-01-07); ND (23-11-12);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AI (24-01-24); MD (23-12-13); GD (23-12-13);  EC (24-02-07); ND (23-12-13);</v>
       </c>
       <c r="T31" s="6"/>
       <c r="U31" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ND(24-05-26/치료)</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>IBD(24-07-15/치료)</v>
       </c>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA31" s="6">
         <v>0</v>
